--- a/medicine/Pharmacie/Reslizumab/Reslizumab.xlsx
+++ b/medicine/Pharmacie/Reslizumab/Reslizumab.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le reslizumab, commercialisé sous le nom de Cinqaero, est un anticorps monoclonal humanisé (IgG4, κ) dirigé contre l'interleukine 5 (IL-5) humaine[1]. 
-Il se lie spécifiquement à l'IL-5 et interfère avec la liaison de l'IL-5 à son récepteur de surface cellulaire[2] et bloque ainsi sa fonction biologique, ce qui a pour conséquence de réduire la survie et l'activité des éosinophiles[3].
+Le reslizumab, commercialisé sous le nom de Cinqaero, est un anticorps monoclonal humanisé (IgG4, κ) dirigé contre l'interleukine 5 (IL-5) humaine. 
+Il se lie spécifiquement à l'IL-5 et interfère avec la liaison de l'IL-5 à son récepteur de surface cellulaire et bloque ainsi sa fonction biologique, ce qui a pour conséquence de réduire la survie et l'activité des éosinophiles.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Indication</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le reslizumab est indiqué chez l'adulte dans le traitement de l’asthme à éosinophiles sévère et réfractaire[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le reslizumab est indiqué chez l'adulte dans le traitement de l’asthme à éosinophiles sévère et réfractaire.
 </t>
         </is>
       </c>
